--- a/data/LTD_new.xlsx
+++ b/data/LTD_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\internal.vic.gov.au\DTF\HomeDirs1\vidgjn6\Desktop\B24-25\April\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinaight/Desktop/29mob/ltd_forecasting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B032A-9156-4907-886E-FDFCD092E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030E9B5-81D5-AF41-893D-0C72782BDA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate data" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,12 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -413,11 +413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>31594</v>
       </c>
@@ -451,7 +453,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>31625</v>
       </c>
@@ -468,7 +470,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>31656</v>
       </c>
@@ -485,7 +487,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>31686</v>
       </c>
@@ -502,7 +504,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>31717</v>
       </c>
@@ -519,7 +521,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>31747</v>
       </c>
@@ -536,7 +538,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>31778</v>
       </c>
@@ -553,7 +555,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>31809</v>
       </c>
@@ -570,7 +572,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>31837</v>
       </c>
@@ -587,7 +589,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>31868</v>
       </c>
@@ -604,7 +606,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>31898</v>
       </c>
@@ -621,7 +623,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>31929</v>
       </c>
@@ -638,7 +640,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>31959</v>
       </c>
@@ -655,7 +657,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>31990</v>
       </c>
@@ -672,7 +674,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32021</v>
       </c>
@@ -689,7 +691,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>32051</v>
       </c>
@@ -706,7 +708,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>32082</v>
       </c>
@@ -723,7 +725,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>32112</v>
       </c>
@@ -740,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32143</v>
       </c>
@@ -757,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32174</v>
       </c>
@@ -774,7 +776,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32203</v>
       </c>
@@ -791,7 +793,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32234</v>
       </c>
@@ -808,7 +810,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32264</v>
       </c>
@@ -825,7 +827,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32295</v>
       </c>
@@ -842,7 +844,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>32325</v>
       </c>
@@ -859,7 +861,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>32356</v>
       </c>
@@ -876,7 +878,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>32387</v>
       </c>
@@ -893,7 +895,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32417</v>
       </c>
@@ -910,7 +912,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>32448</v>
       </c>
@@ -927,7 +929,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>32478</v>
       </c>
@@ -944,7 +946,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>32509</v>
       </c>
@@ -961,7 +963,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32540</v>
       </c>
@@ -978,7 +980,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32568</v>
       </c>
@@ -995,7 +997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>32599</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>32629</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>32660</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>32690</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>32721</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>32752</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>32782</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>32813</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>32843</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>32874</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>32905</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>32933</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>32964</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>32994</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>33025</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>33055</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33086</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>33117</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>33147</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>33178</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>33208</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>33239</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>33270</v>
       </c>
@@ -1386,7 +1388,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>33298</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>33329</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>33359</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>33390</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>33420</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>33451</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>33482</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>33512</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>33543</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>33573</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>33604</v>
       </c>
@@ -1573,7 +1575,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>33635</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>33664</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>33695</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>33725</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>33756</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>33786</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>33817</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>33848</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>33878</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>33909</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>33939</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>33970</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>34001</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>34029</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>34060</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>34090</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34121</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>34151</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>34182</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>34213</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>34243</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>34274</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>34304</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>34335</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>34366</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>34394</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>34425</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>34455</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>34486</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34516</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>34547</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>34578</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>34608</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>34639</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>34669</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>34700</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>34731</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>34759</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>34790</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>34820</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>34851</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>34881</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>34912</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>34943</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>34973</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35004</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>35034</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>35065</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>35096</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>35125</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>35156</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>35186</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>35217</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>35247</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>35278</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>9.61</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>35309</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>9.2899999999999903</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>35339</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>9.2899999999999903</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>35370</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>35400</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>8.48</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>35431</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>35462</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>35490</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>35521</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>35551</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>35582</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>35612</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>35643</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>35674</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>35704</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>35735</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>35765</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>35796</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>35827</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>35855</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>35886</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>35916</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>35947</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>35977</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>36008</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>36039</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>36069</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>36100</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>36130</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>36161</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>36192</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>36220</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>36251</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>36281</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36312</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>36342</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>36373</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>36404</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>36434</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>36465</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>36495</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>36526</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>36557</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>36586</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>36617</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>36647</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>36678</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>36708</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>36739</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>36770</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>36800</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>36831</v>
       </c>
@@ -3375,7 +3377,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>36861</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>36892</v>
       </c>
@@ -3409,7 +3411,7 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>36923</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>36951</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>36982</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>37012</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>37043</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>37073</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>37104</v>
       </c>
@@ -3528,7 +3530,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>37135</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>37165</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>37196</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>37226</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>37257</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>37288</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>37316</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>37347</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>37377</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>37408</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>37438</v>
       </c>
@@ -3711,14 +3713,11 @@
       <c r="D194">
         <v>60.066699999999997</v>
       </c>
-      <c r="E194">
-        <v>2410</v>
-      </c>
       <c r="F194">
         <v>6.57</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>37469</v>
       </c>
@@ -3732,13 +3731,13 @@
         <v>60.817700000000002</v>
       </c>
       <c r="E195">
-        <v>2378.4</v>
+        <v>2410</v>
       </c>
       <c r="F195">
         <v>6.57</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>37500</v>
       </c>
@@ -3752,13 +3751,13 @@
         <v>61.603000000000002</v>
       </c>
       <c r="E196">
-        <v>2241.6999999999998</v>
+        <v>2378.4</v>
       </c>
       <c r="F196">
         <v>6.57</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>37530</v>
       </c>
@@ -3772,13 +3771,13 @@
         <v>62.027700000000003</v>
       </c>
       <c r="E197">
-        <v>2410.6</v>
+        <v>2241.6999999999998</v>
       </c>
       <c r="F197">
         <v>6.57</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>37561</v>
       </c>
@@ -3792,13 +3791,13 @@
         <v>62.129100000000001</v>
       </c>
       <c r="E198">
-        <v>2326</v>
+        <v>2410.6</v>
       </c>
       <c r="F198">
         <v>6.57</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>37591</v>
       </c>
@@ -3812,13 +3811,13 @@
         <v>62.089700000000001</v>
       </c>
       <c r="E199">
-        <v>2436.3000000000002</v>
+        <v>2326</v>
       </c>
       <c r="F199">
         <v>6.57</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>37622</v>
       </c>
@@ -3832,13 +3831,13 @@
         <v>62.292999999999999</v>
       </c>
       <c r="E200">
-        <v>2172.8000000000002</v>
+        <v>2436.3000000000002</v>
       </c>
       <c r="F200">
         <v>6.57</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>37653</v>
       </c>
@@ -3852,13 +3851,13 @@
         <v>62.387099999999997</v>
       </c>
       <c r="E201">
-        <v>2179.1999999999998</v>
+        <v>2172.8000000000002</v>
       </c>
       <c r="F201">
         <v>6.57</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>37681</v>
       </c>
@@ -3872,13 +3871,13 @@
         <v>62.971899999999998</v>
       </c>
       <c r="E202">
-        <v>2422.1999999999998</v>
+        <v>2179.1999999999998</v>
       </c>
       <c r="F202">
         <v>6.57</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>37712</v>
       </c>
@@ -3892,13 +3891,13 @@
         <v>63.696599999999997</v>
       </c>
       <c r="E203">
-        <v>2367.4</v>
+        <v>2422.1999999999998</v>
       </c>
       <c r="F203">
         <v>6.57</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>37742</v>
       </c>
@@ -3912,13 +3911,13 @@
         <v>64.499799999999894</v>
       </c>
       <c r="E204">
-        <v>2712.9</v>
+        <v>2367.4</v>
       </c>
       <c r="F204">
         <v>6.57</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>37773</v>
       </c>
@@ -3932,13 +3931,13 @@
         <v>65.403599999999997</v>
       </c>
       <c r="E205">
-        <v>2737.4</v>
+        <v>2712.9</v>
       </c>
       <c r="F205">
         <v>6.57</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>37803</v>
       </c>
@@ -3952,13 +3951,13 @@
         <v>66.213399999999893</v>
       </c>
       <c r="E206">
-        <v>3031.2</v>
+        <v>2737.4</v>
       </c>
       <c r="F206">
         <v>6.57</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>37834</v>
       </c>
@@ -3972,13 +3971,13 @@
         <v>67.321100000000001</v>
       </c>
       <c r="E207">
-        <v>2893.9</v>
+        <v>3031.2</v>
       </c>
       <c r="F207">
         <v>6.57</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>37865</v>
       </c>
@@ -3992,13 +3991,13 @@
         <v>68.374099999999999</v>
       </c>
       <c r="E208">
-        <v>2921.9</v>
+        <v>2893.9</v>
       </c>
       <c r="F208">
         <v>6.57</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>37895</v>
       </c>
@@ -4012,13 +4011,13 @@
         <v>69.354299999999995</v>
       </c>
       <c r="E209">
-        <v>3245.7</v>
+        <v>2921.9</v>
       </c>
       <c r="F209">
         <v>6.57</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>37926</v>
       </c>
@@ -4032,13 +4031,13 @@
         <v>69.62</v>
       </c>
       <c r="E210">
-        <v>2931.4</v>
+        <v>3245.7</v>
       </c>
       <c r="F210">
         <v>6.82</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>37956</v>
       </c>
@@ -4052,13 +4051,13 @@
         <v>69.286799999999999</v>
       </c>
       <c r="E211">
-        <v>3057</v>
+        <v>2931.4</v>
       </c>
       <c r="F211">
         <v>7.07</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>37987</v>
       </c>
@@ -4072,13 +4071,13 @@
         <v>69.302400000000006</v>
       </c>
       <c r="E212">
-        <v>2237.3000000000002</v>
+        <v>3057</v>
       </c>
       <c r="F212">
         <v>7.07</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>38018</v>
       </c>
@@ -4092,13 +4091,13 @@
         <v>69.011499999999998</v>
       </c>
       <c r="E213">
-        <v>2298.5</v>
+        <v>2237.3000000000002</v>
       </c>
       <c r="F213">
         <v>7.07</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>38047</v>
       </c>
@@ -4112,13 +4111,13 @@
         <v>68.864099999999894</v>
       </c>
       <c r="E214">
-        <v>2709.4</v>
+        <v>2298.5</v>
       </c>
       <c r="F214">
         <v>7.07</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>38078</v>
       </c>
@@ -4132,13 +4131,13 @@
         <v>68.778599999999997</v>
       </c>
       <c r="E215">
-        <v>2540.6999999999998</v>
+        <v>2709.4</v>
       </c>
       <c r="F215">
         <v>7.07</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>38108</v>
       </c>
@@ -4152,13 +4151,13 @@
         <v>68.717600000000004</v>
       </c>
       <c r="E216">
-        <v>2548.1</v>
+        <v>2540.6999999999998</v>
       </c>
       <c r="F216">
         <v>7.07</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>38139</v>
       </c>
@@ -4172,13 +4171,13 @@
         <v>68.637600000000006</v>
       </c>
       <c r="E217">
-        <v>2618.1</v>
+        <v>2548.1</v>
       </c>
       <c r="F217">
         <v>7.07</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>38169</v>
       </c>
@@ -4192,13 +4191,13 @@
         <v>68.192700000000002</v>
       </c>
       <c r="E218">
-        <v>2738.4</v>
+        <v>2618.1</v>
       </c>
       <c r="F218">
         <v>7.07</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>38200</v>
       </c>
@@ -4212,13 +4211,13 @@
         <v>68.250500000000002</v>
       </c>
       <c r="E219">
-        <v>2658.7</v>
+        <v>2738.4</v>
       </c>
       <c r="F219">
         <v>7.07</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>38231</v>
       </c>
@@ -4232,13 +4231,13 @@
         <v>68.462000000000003</v>
       </c>
       <c r="E220">
-        <v>2744</v>
+        <v>2658.7</v>
       </c>
       <c r="F220">
         <v>7.07</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38261</v>
       </c>
@@ -4252,13 +4251,13 @@
         <v>68.850999999999999</v>
       </c>
       <c r="E221">
-        <v>2551.1</v>
+        <v>2744</v>
       </c>
       <c r="F221">
         <v>7.07</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>38292</v>
       </c>
@@ -4272,13 +4271,13 @@
         <v>69.333399999999997</v>
       </c>
       <c r="E222">
-        <v>2940.9</v>
+        <v>2551.1</v>
       </c>
       <c r="F222">
         <v>7.07</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>38322</v>
       </c>
@@ -4292,13 +4291,13 @@
         <v>69.580799999999996</v>
       </c>
       <c r="E223">
-        <v>2932.9</v>
+        <v>2940.9</v>
       </c>
       <c r="F223">
         <v>7.07</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>38353</v>
       </c>
@@ -4312,13 +4311,13 @@
         <v>69.623599999999996</v>
       </c>
       <c r="E224">
-        <v>2312.5</v>
+        <v>2932.9</v>
       </c>
       <c r="F224">
         <v>7.07</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>38384</v>
       </c>
@@ -4332,13 +4331,13 @@
         <v>70.065200000000004</v>
       </c>
       <c r="E225">
-        <v>2563.8000000000002</v>
+        <v>2312.5</v>
       </c>
       <c r="F225">
         <v>7.07</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>38412</v>
       </c>
@@ -4352,13 +4351,13 @@
         <v>70.683400000000006</v>
       </c>
       <c r="E226">
-        <v>2922.6</v>
+        <v>2563.8000000000002</v>
       </c>
       <c r="F226">
         <v>7.32</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>38443</v>
       </c>
@@ -4372,13 +4371,13 @@
         <v>70.838200000000001</v>
       </c>
       <c r="E227">
-        <v>2902.7</v>
+        <v>2922.6</v>
       </c>
       <c r="F227">
         <v>7.32</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>38473</v>
       </c>
@@ -4392,13 +4391,13 @@
         <v>71.118799999999894</v>
       </c>
       <c r="E228">
-        <v>3061.2</v>
+        <v>2902.7</v>
       </c>
       <c r="F228">
         <v>7.32</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>38504</v>
       </c>
@@ -4412,13 +4411,13 @@
         <v>71.284400000000005</v>
       </c>
       <c r="E229">
-        <v>3038.5</v>
+        <v>3061.2</v>
       </c>
       <c r="F229">
         <v>7.32</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>38534</v>
       </c>
@@ -4432,13 +4431,13 @@
         <v>71.149100000000004</v>
       </c>
       <c r="E230">
-        <v>2799</v>
+        <v>3038.5</v>
       </c>
       <c r="F230">
         <v>7.32</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>38565</v>
       </c>
@@ -4452,13 +4451,13 @@
         <v>71.152600000000007</v>
       </c>
       <c r="E231">
-        <v>2966.8</v>
+        <v>2799</v>
       </c>
       <c r="F231">
         <v>7.32</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>38596</v>
       </c>
@@ -4472,13 +4471,13 @@
         <v>71.130099999999999</v>
       </c>
       <c r="E232">
-        <v>2867.9</v>
+        <v>2966.8</v>
       </c>
       <c r="F232">
         <v>7.32</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>38626</v>
       </c>
@@ -4492,13 +4491,13 @@
         <v>71.481300000000005</v>
       </c>
       <c r="E233">
-        <v>2957.5</v>
+        <v>2867.9</v>
       </c>
       <c r="F233">
         <v>7.32</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>38657</v>
       </c>
@@ -4512,13 +4511,13 @@
         <v>71.570099999999996</v>
       </c>
       <c r="E234">
-        <v>3175.1</v>
+        <v>2957.5</v>
       </c>
       <c r="F234">
         <v>7.32</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>38687</v>
       </c>
@@ -4532,13 +4531,13 @@
         <v>71.636300000000006</v>
       </c>
       <c r="E235">
-        <v>3148.2</v>
+        <v>3175.1</v>
       </c>
       <c r="F235">
         <v>7.32</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>38718</v>
       </c>
@@ -4552,13 +4551,13 @@
         <v>71.885800000000003</v>
       </c>
       <c r="E236">
-        <v>2445.1999999999998</v>
+        <v>3148.2</v>
       </c>
       <c r="F236">
         <v>7.32</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>38749</v>
       </c>
@@ -4572,13 +4571,13 @@
         <v>72.257300000000001</v>
       </c>
       <c r="E237">
-        <v>2627.9</v>
+        <v>2445.1999999999998</v>
       </c>
       <c r="F237">
         <v>7.32</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>38777</v>
       </c>
@@ -4592,13 +4591,13 @@
         <v>72.808999999999997</v>
       </c>
       <c r="E238">
-        <v>3093.8</v>
+        <v>2627.9</v>
       </c>
       <c r="F238">
         <v>7.32</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>38808</v>
       </c>
@@ -4612,13 +4611,13 @@
         <v>73.278400000000005</v>
       </c>
       <c r="E239">
-        <v>2605.1999999999998</v>
+        <v>3093.8</v>
       </c>
       <c r="F239">
         <v>7.32</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>38838</v>
       </c>
@@ -4632,13 +4631,13 @@
         <v>73.709500000000006</v>
       </c>
       <c r="E240">
-        <v>3521.9</v>
+        <v>2605.1999999999998</v>
       </c>
       <c r="F240">
         <v>7.57</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>38869</v>
       </c>
@@ -4652,13 +4651,13 @@
         <v>74.174300000000002</v>
       </c>
       <c r="E241">
-        <v>3349.8</v>
+        <v>3521.9</v>
       </c>
       <c r="F241">
         <v>7.57</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>38899</v>
       </c>
@@ -4672,13 +4671,13 @@
         <v>74.613500000000002</v>
       </c>
       <c r="E242">
-        <v>3088</v>
+        <v>3349.8</v>
       </c>
       <c r="F242">
         <v>7.57</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>38930</v>
       </c>
@@ -4692,13 +4691,13 @@
         <v>75.007900000000006</v>
       </c>
       <c r="E243">
-        <v>3360.1</v>
+        <v>3088</v>
       </c>
       <c r="F243">
         <v>7.82</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>38961</v>
       </c>
@@ -4712,13 +4711,13 @@
         <v>75.335099999999997</v>
       </c>
       <c r="E244">
-        <v>2878.9</v>
+        <v>3360.1</v>
       </c>
       <c r="F244">
         <v>7.82</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>38991</v>
       </c>
@@ -4732,13 +4731,13 @@
         <v>75.505300000000005</v>
       </c>
       <c r="E245">
-        <v>3088.1</v>
+        <v>2878.9</v>
       </c>
       <c r="F245">
         <v>7.82</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>39022</v>
       </c>
@@ -4752,13 +4751,13 @@
         <v>75.868099999999998</v>
       </c>
       <c r="E246">
-        <v>3209.8</v>
+        <v>3088.1</v>
       </c>
       <c r="F246">
         <v>8.07</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>39052</v>
       </c>
@@ -4772,13 +4771,13 @@
         <v>75.9833</v>
       </c>
       <c r="E247">
-        <v>3096.1</v>
+        <v>3209.8</v>
       </c>
       <c r="F247">
         <v>8.07</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>39083</v>
       </c>
@@ -4792,13 +4791,13 @@
         <v>76.228999999999999</v>
       </c>
       <c r="E248">
-        <v>2763.4</v>
+        <v>3096.1</v>
       </c>
       <c r="F248">
         <v>8.07</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>39114</v>
       </c>
@@ -4812,13 +4811,13 @@
         <v>76.891000000000005</v>
       </c>
       <c r="E249">
-        <v>2765.6</v>
+        <v>2763.4</v>
       </c>
       <c r="F249">
         <v>8.07</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>39142</v>
       </c>
@@ -4832,13 +4831,13 @@
         <v>78.176900000000003</v>
       </c>
       <c r="E250">
-        <v>3310</v>
+        <v>2765.6</v>
       </c>
       <c r="F250">
         <v>8.07</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>39173</v>
       </c>
@@ -4852,13 +4851,13 @@
         <v>78.933099999999996</v>
       </c>
       <c r="E251">
-        <v>3130.3</v>
+        <v>3310</v>
       </c>
       <c r="F251">
         <v>8.07</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>39203</v>
       </c>
@@ -4872,13 +4871,13 @@
         <v>80.4512</v>
       </c>
       <c r="E252">
-        <v>4160.3</v>
+        <v>3130.3</v>
       </c>
       <c r="F252">
         <v>8.07</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>39234</v>
       </c>
@@ -4892,13 +4891,13 @@
         <v>81.910700000000006</v>
       </c>
       <c r="E253">
-        <v>4014.8</v>
+        <v>4160.3</v>
       </c>
       <c r="F253">
         <v>8.07</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>39264</v>
       </c>
@@ -4912,13 +4911,13 @@
         <v>83.209199999999996</v>
       </c>
       <c r="E254">
-        <v>3681.9</v>
+        <v>4014.8</v>
       </c>
       <c r="F254">
         <v>8.07</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>39295</v>
       </c>
@@ -4932,13 +4931,13 @@
         <v>84.900800000000004</v>
       </c>
       <c r="E255">
-        <v>4069.6</v>
+        <v>3681.9</v>
       </c>
       <c r="F255">
         <v>8.32</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>39326</v>
       </c>
@@ -4952,13 +4951,13 @@
         <v>86.504199999999997</v>
       </c>
       <c r="E256">
-        <v>3505.7</v>
+        <v>4069.6</v>
       </c>
       <c r="F256">
         <v>8.32</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>39356</v>
       </c>
@@ -4972,13 +4971,13 @@
         <v>88.328100000000006</v>
       </c>
       <c r="E257">
-        <v>3964.8</v>
+        <v>3505.7</v>
       </c>
       <c r="F257">
         <v>8.32</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>39387</v>
       </c>
@@ -4992,13 +4991,13 @@
         <v>89.643199999999894</v>
       </c>
       <c r="E258">
-        <v>4148.8999999999996</v>
+        <v>3964.8</v>
       </c>
       <c r="F258">
         <v>8.57</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>39417</v>
       </c>
@@ -5012,13 +5011,13 @@
         <v>90.2941</v>
       </c>
       <c r="E259">
-        <v>3821.5</v>
+        <v>4148.8999999999996</v>
       </c>
       <c r="F259">
         <v>8.57</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>39448</v>
       </c>
@@ -5032,13 +5031,13 @@
         <v>91.2</v>
       </c>
       <c r="E260">
-        <v>3469.2</v>
+        <v>3821.5</v>
       </c>
       <c r="F260">
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>39479</v>
       </c>
@@ -5052,13 +5051,13 @@
         <v>91.544499999999999</v>
       </c>
       <c r="E261">
-        <v>3489.2</v>
+        <v>3469.2</v>
       </c>
       <c r="F261">
         <v>8.99</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>39508</v>
       </c>
@@ -5072,13 +5071,13 @@
         <v>91.246899999999997</v>
       </c>
       <c r="E262">
-        <v>3128.8</v>
+        <v>3489.2</v>
       </c>
       <c r="F262">
         <v>9.34</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>39539</v>
       </c>
@@ -5092,13 +5091,13 @@
         <v>90.626599999999996</v>
       </c>
       <c r="E263">
-        <v>3405.7</v>
+        <v>3128.8</v>
       </c>
       <c r="F263">
         <v>9.44</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>39569</v>
       </c>
@@ -5112,13 +5111,13 @@
         <v>89.638900000000007</v>
       </c>
       <c r="E264">
-        <v>3530.5</v>
+        <v>3405.7</v>
       </c>
       <c r="F264">
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>39600</v>
       </c>
@@ -5132,13 +5131,13 @@
         <v>89.0047</v>
       </c>
       <c r="E265">
-        <v>3360.7</v>
+        <v>3530.5</v>
       </c>
       <c r="F265">
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>39630</v>
       </c>
@@ -5152,13 +5151,13 @@
         <v>87.849699999999999</v>
       </c>
       <c r="E266">
-        <v>3313.9</v>
+        <v>3360.7</v>
       </c>
       <c r="F266">
         <v>9.6199999999999903</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>39661</v>
       </c>
@@ -5172,13 +5171,13 @@
         <v>87.257999999999996</v>
       </c>
       <c r="E267">
-        <v>3109.1</v>
+        <v>3313.9</v>
       </c>
       <c r="F267">
         <v>9.6199999999999903</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>39692</v>
       </c>
@@ -5192,13 +5191,13 @@
         <v>86.864800000000002</v>
       </c>
       <c r="E268">
-        <v>3232.1</v>
+        <v>3109.1</v>
       </c>
       <c r="F268">
         <v>9.36</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>39722</v>
       </c>
@@ -5212,13 +5211,13 @@
         <v>86.331299999999999</v>
       </c>
       <c r="E269">
-        <v>3546.7</v>
+        <v>3232.1</v>
       </c>
       <c r="F269">
         <v>8.34</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>39753</v>
       </c>
@@ -5232,13 +5231,13 @@
         <v>86.078800000000001</v>
       </c>
       <c r="E270">
-        <v>3214.6</v>
+        <v>3546.7</v>
       </c>
       <c r="F270">
         <v>7.73</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>39783</v>
       </c>
@@ -5252,13 +5251,13 @@
         <v>85.038899999999998</v>
       </c>
       <c r="E271">
-        <v>3652.2</v>
+        <v>3214.6</v>
       </c>
       <c r="F271">
         <v>6.84</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>39814</v>
       </c>
@@ -5272,13 +5271,13 @@
         <v>84.950599999999994</v>
       </c>
       <c r="E272">
-        <v>3079.8</v>
+        <v>3652.2</v>
       </c>
       <c r="F272">
         <v>6.84</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>39845</v>
       </c>
@@ -5292,13 +5291,13 @@
         <v>85.376300000000001</v>
       </c>
       <c r="E273">
-        <v>3139.2</v>
+        <v>3079.8</v>
       </c>
       <c r="F273">
         <v>5.84</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>39873</v>
       </c>
@@ -5312,13 +5311,13 @@
         <v>85.950100000000006</v>
       </c>
       <c r="E274">
-        <v>3931.3</v>
+        <v>3139.2</v>
       </c>
       <c r="F274">
         <v>5.84</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>39904</v>
       </c>
@@ -5332,13 +5331,13 @@
         <v>86.715500000000006</v>
       </c>
       <c r="E275">
-        <v>3853.8</v>
+        <v>3931.3</v>
       </c>
       <c r="F275">
         <v>5.76</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>39934</v>
       </c>
@@ -5352,13 +5351,13 @@
         <v>88.096199999999996</v>
       </c>
       <c r="E276">
-        <v>4234.2</v>
+        <v>3853.8</v>
       </c>
       <c r="F276">
         <v>5.76</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>39965</v>
       </c>
@@ -5372,13 +5371,13 @@
         <v>89.338800000000006</v>
       </c>
       <c r="E277">
-        <v>4439.3999999999996</v>
+        <v>4234.2</v>
       </c>
       <c r="F277">
         <v>5.78</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>39995</v>
       </c>
@@ -5392,13 +5391,13 @@
         <v>90.799300000000002</v>
       </c>
       <c r="E278">
-        <v>4503</v>
+        <v>4439.3999999999996</v>
       </c>
       <c r="F278">
         <v>5.78</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>40026</v>
       </c>
@@ -5412,13 +5411,13 @@
         <v>92.820300000000003</v>
       </c>
       <c r="E279">
-        <v>4111.3999999999996</v>
+        <v>4503</v>
       </c>
       <c r="F279">
         <v>5.78</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>40057</v>
       </c>
@@ -5432,13 +5431,13 @@
         <v>94.507199999999997</v>
       </c>
       <c r="E280">
-        <v>4465.2</v>
+        <v>4111.3999999999996</v>
       </c>
       <c r="F280">
         <v>5.78</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>40087</v>
       </c>
@@ -5452,13 +5451,13 @@
         <v>96.664699999999996</v>
       </c>
       <c r="E281">
-        <v>4515.6000000000004</v>
+        <v>4465.2</v>
       </c>
       <c r="F281">
         <v>6.03</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>40118</v>
       </c>
@@ -5472,13 +5471,13 @@
         <v>98.7607</v>
       </c>
       <c r="E282">
-        <v>4387.7</v>
+        <v>4515.6000000000004</v>
       </c>
       <c r="F282">
         <v>6.28</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>40148</v>
       </c>
@@ -5492,13 +5491,13 @@
         <v>100</v>
       </c>
       <c r="E283">
-        <v>4594.1000000000004</v>
+        <v>4387.7</v>
       </c>
       <c r="F283">
         <v>6.64</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>40179</v>
       </c>
@@ -5512,13 +5511,13 @@
         <v>101.605</v>
       </c>
       <c r="E284">
-        <v>3440</v>
+        <v>4594.1000000000004</v>
       </c>
       <c r="F284">
         <v>6.64</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>40210</v>
       </c>
@@ -5532,13 +5531,13 @@
         <v>103.06570000000001</v>
       </c>
       <c r="E285">
-        <v>3720.6</v>
+        <v>3440</v>
       </c>
       <c r="F285">
         <v>6.64</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>40238</v>
       </c>
@@ -5552,13 +5551,13 @@
         <v>104.6341</v>
       </c>
       <c r="E286">
-        <v>4248.8</v>
+        <v>3720.6</v>
       </c>
       <c r="F286">
         <v>6.89</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>40269</v>
       </c>
@@ -5572,13 +5571,13 @@
         <v>106.1709</v>
       </c>
       <c r="E287">
-        <v>4058.6</v>
+        <v>4248.8</v>
       </c>
       <c r="F287">
         <v>7.14</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>40299</v>
       </c>
@@ -5592,13 +5591,13 @@
         <v>107.386</v>
       </c>
       <c r="E288">
-        <v>4541.6000000000004</v>
+        <v>4058.6</v>
       </c>
       <c r="F288">
         <v>7.39</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>40330</v>
       </c>
@@ -5612,13 +5611,13 @@
         <v>107.3605</v>
       </c>
       <c r="E289">
-        <v>4794.5</v>
+        <v>4541.6000000000004</v>
       </c>
       <c r="F289">
         <v>7.39</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>40360</v>
       </c>
@@ -5632,13 +5631,13 @@
         <v>107.3079</v>
       </c>
       <c r="E290">
-        <v>4537.3999999999996</v>
+        <v>4794.5</v>
       </c>
       <c r="F290">
         <v>7.39</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>40391</v>
       </c>
@@ -5652,13 +5651,13 @@
         <v>107.37430000000001</v>
       </c>
       <c r="E291">
-        <v>4350.6000000000004</v>
+        <v>4537.3999999999996</v>
       </c>
       <c r="F291">
         <v>7.39</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>40422</v>
       </c>
@@ -5672,13 +5671,13 @@
         <v>107.05719999999999</v>
       </c>
       <c r="E292">
-        <v>4187.8999999999996</v>
+        <v>4350.6000000000004</v>
       </c>
       <c r="F292">
         <v>7.39</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>40452</v>
       </c>
@@ -5692,13 +5691,13 @@
         <v>106.8445</v>
       </c>
       <c r="E293">
-        <v>4190.1000000000004</v>
+        <v>4187.8999999999996</v>
       </c>
       <c r="F293">
         <v>7.39</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>40483</v>
       </c>
@@ -5712,13 +5711,13 @@
         <v>106.4199</v>
       </c>
       <c r="E294">
-        <v>4425.7</v>
+        <v>4190.1000000000004</v>
       </c>
       <c r="F294">
         <v>7.79</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>40513</v>
       </c>
@@ -5732,13 +5731,13 @@
         <v>105.74160000000001</v>
       </c>
       <c r="E295">
-        <v>4712.7</v>
+        <v>4425.7</v>
       </c>
       <c r="F295">
         <v>7.79</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>40544</v>
       </c>
@@ -5752,13 +5751,13 @@
         <v>105.2154</v>
       </c>
       <c r="E296">
-        <v>3329.8</v>
+        <v>4712.7</v>
       </c>
       <c r="F296">
         <v>7.79</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>40575</v>
       </c>
@@ -5772,13 +5771,13 @@
         <v>105.26179999999999</v>
       </c>
       <c r="E297">
-        <v>3539</v>
+        <v>3329.8</v>
       </c>
       <c r="F297">
         <v>7.79</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>40603</v>
       </c>
@@ -5792,13 +5791,13 @@
         <v>105.6974</v>
       </c>
       <c r="E298">
-        <v>4061.2</v>
+        <v>3539</v>
       </c>
       <c r="F298">
         <v>7.79</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>40634</v>
       </c>
@@ -5812,13 +5811,13 @@
         <v>105.86020000000001</v>
       </c>
       <c r="E299">
-        <v>3696.1</v>
+        <v>4061.2</v>
       </c>
       <c r="F299">
         <v>7.79</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>40664</v>
       </c>
@@ -5832,13 +5831,13 @@
         <v>105.8152</v>
       </c>
       <c r="E300">
-        <v>4488.8999999999996</v>
+        <v>3696.1</v>
       </c>
       <c r="F300">
         <v>7.79</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>40695</v>
       </c>
@@ -5852,13 +5851,13 @@
         <v>105.3116</v>
       </c>
       <c r="E301">
-        <v>4414.5</v>
+        <v>4488.8999999999996</v>
       </c>
       <c r="F301">
         <v>7.79</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>40725</v>
       </c>
@@ -5872,13 +5871,13 @@
         <v>104.7146</v>
       </c>
       <c r="E302">
-        <v>3992.6</v>
+        <v>4414.5</v>
       </c>
       <c r="F302">
         <v>7.79</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>40756</v>
       </c>
@@ -5892,13 +5891,13 @@
         <v>104.2372</v>
       </c>
       <c r="E303">
-        <v>4214.1000000000004</v>
+        <v>3992.6</v>
       </c>
       <c r="F303">
         <v>7.79</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>40787</v>
       </c>
@@ -5912,13 +5911,13 @@
         <v>103.5985</v>
       </c>
       <c r="E304">
-        <v>3898.7</v>
+        <v>4214.1000000000004</v>
       </c>
       <c r="F304">
         <v>7.79</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>40817</v>
       </c>
@@ -5932,13 +5931,13 @@
         <v>102.7576</v>
       </c>
       <c r="E305">
-        <v>3627</v>
+        <v>3898.7</v>
       </c>
       <c r="F305">
         <v>7.79</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>40848</v>
       </c>
@@ -5952,13 +5951,13 @@
         <v>102.06229999999999</v>
       </c>
       <c r="E306">
-        <v>3964.5</v>
+        <v>3627</v>
       </c>
       <c r="F306">
         <v>7.55</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>40878</v>
       </c>
@@ -5972,13 +5971,13 @@
         <v>101.3516</v>
       </c>
       <c r="E307">
-        <v>4024.1</v>
+        <v>3964.5</v>
       </c>
       <c r="F307">
         <v>7.3</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>40909</v>
       </c>
@@ -5992,13 +5991,13 @@
         <v>100.72839999999999</v>
       </c>
       <c r="E308">
-        <v>3234.7</v>
+        <v>4024.1</v>
       </c>
       <c r="F308">
         <v>7.3</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>40940</v>
       </c>
@@ -6012,13 +6011,13 @@
         <v>100.5821</v>
       </c>
       <c r="E309">
-        <v>3444.7</v>
+        <v>3234.7</v>
       </c>
       <c r="F309">
         <v>7.39</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>40969</v>
       </c>
@@ -6032,13 +6031,13 @@
         <v>100.9918</v>
       </c>
       <c r="E310">
-        <v>3664.6</v>
+        <v>3444.7</v>
       </c>
       <c r="F310">
         <v>7.39</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41000</v>
       </c>
@@ -6052,13 +6051,13 @@
         <v>101.17529999999999</v>
       </c>
       <c r="E311">
-        <v>3461.6</v>
+        <v>3664.6</v>
       </c>
       <c r="F311">
         <v>7.4</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41030</v>
       </c>
@@ -6072,13 +6071,13 @@
         <v>101.6122</v>
       </c>
       <c r="E312">
-        <v>4511.3999999999996</v>
+        <v>3461.6</v>
       </c>
       <c r="F312">
         <v>7.04</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41061</v>
       </c>
@@ -6092,13 +6091,13 @@
         <v>101.372</v>
       </c>
       <c r="E313">
-        <v>4226.6000000000004</v>
+        <v>4511.3999999999996</v>
       </c>
       <c r="F313">
         <v>6.83</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41091</v>
       </c>
@@ -6112,13 +6111,13 @@
         <v>101.05549999999999</v>
       </c>
       <c r="E314">
-        <v>3999.8</v>
+        <v>4226.6000000000004</v>
       </c>
       <c r="F314">
         <v>6.83</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41122</v>
       </c>
@@ -6132,13 +6131,13 @@
         <v>100.8938</v>
       </c>
       <c r="E315">
-        <v>4011.5</v>
+        <v>3999.8</v>
       </c>
       <c r="F315">
         <v>6.83</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41153</v>
       </c>
@@ -6152,13 +6151,13 @@
         <v>100.84350000000001</v>
       </c>
       <c r="E316">
-        <v>3636</v>
+        <v>4011.5</v>
       </c>
       <c r="F316">
         <v>6.83</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41183</v>
       </c>
@@ -6172,13 +6171,13 @@
         <v>101.5158</v>
       </c>
       <c r="E317">
-        <v>4191.6000000000004</v>
+        <v>3636</v>
       </c>
       <c r="F317">
         <v>6.64</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41214</v>
       </c>
@@ -6192,13 +6191,13 @@
         <v>101.8723</v>
       </c>
       <c r="E318">
-        <v>4214</v>
+        <v>4191.6000000000004</v>
       </c>
       <c r="F318">
         <v>6.64</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41244</v>
       </c>
@@ -6212,13 +6211,13 @@
         <v>101.9922</v>
       </c>
       <c r="E319">
-        <v>4144.1000000000004</v>
+        <v>4214</v>
       </c>
       <c r="F319">
         <v>6.44</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41275</v>
       </c>
@@ -6232,13 +6231,13 @@
         <v>102.19159999999999</v>
       </c>
       <c r="E320">
-        <v>3629.2</v>
+        <v>4144.1000000000004</v>
       </c>
       <c r="F320">
         <v>6.44</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41306</v>
       </c>
@@ -6252,13 +6251,13 @@
         <v>102.821</v>
       </c>
       <c r="E321">
-        <v>3557.2</v>
+        <v>3629.2</v>
       </c>
       <c r="F321">
         <v>6.44</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>41334</v>
       </c>
@@ -6272,13 +6271,13 @@
         <v>103.6768</v>
       </c>
       <c r="E322">
-        <v>3968.3</v>
+        <v>3557.2</v>
       </c>
       <c r="F322">
         <v>6.44</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>41365</v>
       </c>
@@ -6292,13 +6291,13 @@
         <v>104.19889999999999</v>
       </c>
       <c r="E323">
-        <v>4255.2</v>
+        <v>3968.3</v>
       </c>
       <c r="F323">
         <v>6.44</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>41395</v>
       </c>
@@ -6312,13 +6311,13 @@
         <v>104.86790000000001</v>
       </c>
       <c r="E324">
-        <v>4922</v>
+        <v>4255.2</v>
       </c>
       <c r="F324">
         <v>6.18</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>41426</v>
       </c>
@@ -6332,13 +6331,13 @@
         <v>105.4995</v>
       </c>
       <c r="E325">
-        <v>4451.6000000000004</v>
+        <v>4922</v>
       </c>
       <c r="F325">
         <v>6.18</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>41456</v>
       </c>
@@ -6352,13 +6351,13 @@
         <v>106.17270000000001</v>
       </c>
       <c r="E326">
-        <v>4631.8999999999996</v>
+        <v>4451.6000000000004</v>
       </c>
       <c r="F326">
         <v>6.18</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>41487</v>
       </c>
@@ -6372,13 +6371,13 @@
         <v>107.12779999999999</v>
       </c>
       <c r="E327">
-        <v>4321.1000000000004</v>
+        <v>4631.8999999999996</v>
       </c>
       <c r="F327">
         <v>5.93</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>41518</v>
       </c>
@@ -6392,13 +6391,13 @@
         <v>108.2563</v>
       </c>
       <c r="E328">
-        <v>4377.6000000000004</v>
+        <v>4321.1000000000004</v>
       </c>
       <c r="F328">
         <v>5.93</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>41548</v>
       </c>
@@ -6412,13 +6411,13 @@
         <v>109.40900000000001</v>
       </c>
       <c r="E329">
-        <v>4844</v>
+        <v>4377.6000000000004</v>
       </c>
       <c r="F329">
         <v>5.93</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>41579</v>
       </c>
@@ -6432,13 +6431,13 @@
         <v>110.63890000000001</v>
       </c>
       <c r="E330">
-        <v>4940.2</v>
+        <v>4844</v>
       </c>
       <c r="F330">
         <v>5.93</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>41609</v>
       </c>
@@ -6452,13 +6451,13 @@
         <v>111.218</v>
       </c>
       <c r="E331">
-        <v>5144.2</v>
+        <v>4940.2</v>
       </c>
       <c r="F331">
         <v>5.93</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>41640</v>
       </c>
@@ -6472,13 +6471,13 @@
         <v>111.88760000000001</v>
       </c>
       <c r="E332">
-        <v>4160.6000000000004</v>
+        <v>5144.2</v>
       </c>
       <c r="F332">
         <v>5.93</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>41671</v>
       </c>
@@ -6492,13 +6491,13 @@
         <v>112.5707</v>
       </c>
       <c r="E333">
-        <v>4071.3</v>
+        <v>4160.6000000000004</v>
       </c>
       <c r="F333">
         <v>5.93</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>41699</v>
       </c>
@@ -6512,13 +6511,13 @@
         <v>113.4813</v>
       </c>
       <c r="E334">
-        <v>4482.3</v>
+        <v>4071.3</v>
       </c>
       <c r="F334">
         <v>5.93</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>41730</v>
       </c>
@@ -6532,13 +6531,13 @@
         <v>113.98520000000001</v>
       </c>
       <c r="E335">
-        <v>4700.6000000000004</v>
+        <v>4482.3</v>
       </c>
       <c r="F335">
         <v>5.93</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>41760</v>
       </c>
@@ -6552,13 +6551,13 @@
         <v>114.271</v>
       </c>
       <c r="E336">
-        <v>5282.4</v>
+        <v>4700.6000000000004</v>
       </c>
       <c r="F336">
         <v>5.93</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>41791</v>
       </c>
@@ -6572,13 +6571,13 @@
         <v>114.3429</v>
       </c>
       <c r="E337">
-        <v>5272</v>
+        <v>5282.4</v>
       </c>
       <c r="F337">
         <v>5.93</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>41821</v>
       </c>
@@ -6592,13 +6591,13 @@
         <v>114.7308</v>
       </c>
       <c r="E338">
-        <v>5279.6</v>
+        <v>5272</v>
       </c>
       <c r="F338">
         <v>5.93</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>41852</v>
       </c>
@@ -6612,13 +6611,13 @@
         <v>115.261</v>
       </c>
       <c r="E339">
-        <v>4720</v>
+        <v>5279.6</v>
       </c>
       <c r="F339">
         <v>5.93</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>41883</v>
       </c>
@@ -6632,13 +6631,13 @@
         <v>115.95350000000001</v>
       </c>
       <c r="E340">
-        <v>4895.5</v>
+        <v>4720</v>
       </c>
       <c r="F340">
         <v>5.93</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>41913</v>
       </c>
@@ -6652,13 +6651,13 @@
         <v>116.86360000000001</v>
       </c>
       <c r="E341">
-        <v>5469.3</v>
+        <v>4895.5</v>
       </c>
       <c r="F341">
         <v>5.93</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>41944</v>
       </c>
@@ -6672,13 +6671,13 @@
         <v>117.6032</v>
       </c>
       <c r="E342">
-        <v>5010.3999999999996</v>
+        <v>5469.3</v>
       </c>
       <c r="F342">
         <v>5.93</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>41974</v>
       </c>
@@ -6692,13 +6691,13 @@
         <v>117.8357</v>
       </c>
       <c r="E343">
-        <v>5738.4</v>
+        <v>5010.3999999999996</v>
       </c>
       <c r="F343">
         <v>5.93</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>42005</v>
       </c>
@@ -6712,13 +6711,13 @@
         <v>118.4926</v>
       </c>
       <c r="E344">
-        <v>4492.8999999999996</v>
+        <v>5738.4</v>
       </c>
       <c r="F344">
         <v>5.93</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>42036</v>
       </c>
@@ -6732,13 +6731,13 @@
         <v>119.7</v>
       </c>
       <c r="E345">
-        <v>4299.3</v>
+        <v>4492.8999999999996</v>
       </c>
       <c r="F345">
         <v>5.67</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>42064</v>
       </c>
@@ -6752,13 +6751,13 @@
         <v>121.6236</v>
       </c>
       <c r="E346">
-        <v>5168.7</v>
+        <v>4299.3</v>
       </c>
       <c r="F346">
         <v>5.67</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>42095</v>
       </c>
@@ -6772,13 +6771,13 @@
         <v>123.3412</v>
       </c>
       <c r="E347">
-        <v>5238.7</v>
+        <v>5168.7</v>
       </c>
       <c r="F347">
         <v>5.67</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>42125</v>
       </c>
@@ -6792,13 +6791,13 @@
         <v>125.60590000000001</v>
       </c>
       <c r="E348">
-        <v>5467.1</v>
+        <v>5238.7</v>
       </c>
       <c r="F348">
         <v>5.46</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>42156</v>
       </c>
@@ -6812,13 +6811,13 @@
         <v>127.5391</v>
       </c>
       <c r="E349">
-        <v>6048.3</v>
+        <v>5467.1</v>
       </c>
       <c r="F349">
         <v>5.46</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>42186</v>
       </c>
@@ -6832,13 +6831,13 @@
         <v>128.91829999999999</v>
       </c>
       <c r="E350">
-        <v>5755.8</v>
+        <v>6048.3</v>
       </c>
       <c r="F350">
         <v>5.45</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>42217</v>
       </c>
@@ -6852,13 +6851,13 @@
         <v>129.90110000000001</v>
       </c>
       <c r="E351">
-        <v>5487</v>
+        <v>5755.8</v>
       </c>
       <c r="F351">
         <v>5.46</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>42248</v>
       </c>
@@ -6872,13 +6871,13 @@
         <v>131.1105</v>
       </c>
       <c r="E352">
-        <v>5481.2</v>
+        <v>5487</v>
       </c>
       <c r="F352">
         <v>5.46</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>42278</v>
       </c>
@@ -6892,13 +6891,13 @@
         <v>131.93940000000001</v>
       </c>
       <c r="E353">
-        <v>5553.3</v>
+        <v>5481.2</v>
       </c>
       <c r="F353">
         <v>5.46</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>42309</v>
       </c>
@@ -6912,13 +6911,13 @@
         <v>131.78579999999999</v>
       </c>
       <c r="E354">
-        <v>5805.1</v>
+        <v>5553.3</v>
       </c>
       <c r="F354">
         <v>5.63</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>42339</v>
       </c>
@@ -6932,13 +6931,13 @@
         <v>131.6713</v>
       </c>
       <c r="E355">
-        <v>6031.1</v>
+        <v>5805.1</v>
       </c>
       <c r="F355">
         <v>5.63</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>42370</v>
       </c>
@@ -6952,13 +6951,13 @@
         <v>131.97749999999999</v>
       </c>
       <c r="E356">
-        <v>4341.1000000000004</v>
+        <v>6031.1</v>
       </c>
       <c r="F356">
         <v>5.63</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>42401</v>
       </c>
@@ -6972,13 +6971,13 @@
         <v>132.24199999999999</v>
       </c>
       <c r="E357">
-        <v>4800.1000000000004</v>
+        <v>4341.1000000000004</v>
       </c>
       <c r="F357">
         <v>5.63</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>42430</v>
       </c>
@@ -6992,13 +6991,13 @@
         <v>132.53620000000001</v>
       </c>
       <c r="E358">
-        <v>4960.8999999999996</v>
+        <v>4800.1000000000004</v>
       </c>
       <c r="F358">
         <v>5.63</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>42461</v>
       </c>
@@ -7012,13 +7011,13 @@
         <v>133.0633</v>
       </c>
       <c r="E359">
-        <v>5218.3</v>
+        <v>4960.8999999999996</v>
       </c>
       <c r="F359">
         <v>5.63</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>42491</v>
       </c>
@@ -7032,13 +7031,13 @@
         <v>134.00040000000001</v>
       </c>
       <c r="E360">
-        <v>5809.1</v>
+        <v>5218.3</v>
       </c>
       <c r="F360">
         <v>5.39</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>42522</v>
       </c>
@@ -7052,13 +7051,13 @@
         <v>135.1251</v>
       </c>
       <c r="E361">
-        <v>5969.5</v>
+        <v>5809.1</v>
       </c>
       <c r="F361">
         <v>5.39</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>42552</v>
       </c>
@@ -7072,13 +7071,13 @@
         <v>135.78579999999999</v>
       </c>
       <c r="E362">
-        <v>5261</v>
+        <v>5969.5</v>
       </c>
       <c r="F362">
         <v>5.39</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>42583</v>
       </c>
@@ -7092,13 +7091,13 @@
         <v>136.82570000000001</v>
       </c>
       <c r="E363">
-        <v>5352.3</v>
+        <v>5261</v>
       </c>
       <c r="F363">
         <v>5.26</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>42614</v>
       </c>
@@ -7112,13 +7111,13 @@
         <v>138.16800000000001</v>
       </c>
       <c r="E364">
-        <v>5546.9</v>
+        <v>5352.3</v>
       </c>
       <c r="F364">
         <v>5.26</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>42644</v>
       </c>
@@ -7132,13 +7131,13 @@
         <v>139.9683</v>
       </c>
       <c r="E365">
-        <v>5663.5</v>
+        <v>5546.9</v>
       </c>
       <c r="F365">
         <v>5.26</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>42675</v>
       </c>
@@ -7152,13 +7151,13 @@
         <v>141.75219999999999</v>
       </c>
       <c r="E366">
-        <v>6508.1</v>
+        <v>5663.5</v>
       </c>
       <c r="F366">
         <v>5.26</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>42705</v>
       </c>
@@ -7172,13 +7171,13 @@
         <v>143.00280000000001</v>
       </c>
       <c r="E367">
-        <v>6550.2</v>
+        <v>6508.1</v>
       </c>
       <c r="F367">
         <v>5.26</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>42736</v>
       </c>
@@ -7192,13 +7191,13 @@
         <v>144.0874</v>
       </c>
       <c r="E368">
-        <v>5292.3</v>
+        <v>6550.2</v>
       </c>
       <c r="F368">
         <v>5.26</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>42767</v>
       </c>
@@ -7212,13 +7211,13 @@
         <v>145.84219999999999</v>
       </c>
       <c r="E369">
-        <v>5296.2</v>
+        <v>5292.3</v>
       </c>
       <c r="F369">
         <v>5.26</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>42795</v>
       </c>
@@ -7232,13 +7231,13 @@
         <v>147.9521</v>
       </c>
       <c r="E370">
-        <v>6318.5</v>
+        <v>5296.2</v>
       </c>
       <c r="F370">
         <v>5.28</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>42826</v>
       </c>
@@ -7252,13 +7251,13 @@
         <v>149.9342</v>
       </c>
       <c r="E371">
-        <v>5340.4</v>
+        <v>6318.5</v>
       </c>
       <c r="F371">
         <v>5.28</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>42856</v>
       </c>
@@ -7272,13 +7271,13 @@
         <v>151.8621</v>
       </c>
       <c r="E372">
-        <v>7064.5</v>
+        <v>5340.4</v>
       </c>
       <c r="F372">
         <v>5.29</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>42887</v>
       </c>
@@ -7292,13 +7291,13 @@
         <v>153.1772</v>
       </c>
       <c r="E373">
-        <v>7006.5</v>
+        <v>7064.5</v>
       </c>
       <c r="F373">
         <v>5.23</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>42917</v>
       </c>
@@ -7312,13 +7311,13 @@
         <v>154.0675</v>
       </c>
       <c r="E374">
-        <v>6190.6</v>
+        <v>7006.5</v>
       </c>
       <c r="F374">
         <v>5.22</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>42948</v>
       </c>
@@ -7332,13 +7331,13 @@
         <v>154.9494</v>
       </c>
       <c r="E375">
-        <v>6789.7999999999902</v>
+        <v>6190.6</v>
       </c>
       <c r="F375">
         <v>5.22</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>42979</v>
       </c>
@@ -7352,13 +7351,13 @@
         <v>155.46979999999999</v>
       </c>
       <c r="E376">
-        <v>6331.7</v>
+        <v>6789.7999999999902</v>
       </c>
       <c r="F376">
         <v>5.22</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>43009</v>
       </c>
@@ -7372,13 +7371,13 @@
         <v>156.7216</v>
       </c>
       <c r="E377">
-        <v>6675.4</v>
+        <v>6331.7</v>
       </c>
       <c r="F377">
         <v>5.22</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>43040</v>
       </c>
@@ -7392,13 +7391,13 @@
         <v>157.29130000000001</v>
       </c>
       <c r="E378">
-        <v>7132.8</v>
+        <v>6675.4</v>
       </c>
       <c r="F378">
         <v>5.22</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>43070</v>
       </c>
@@ -7412,13 +7411,13 @@
         <v>157.25139999999999</v>
       </c>
       <c r="E379">
-        <v>6727.9</v>
+        <v>7132.8</v>
       </c>
       <c r="F379">
         <v>5.22</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>43101</v>
       </c>
@@ -7432,13 +7431,13 @@
         <v>157.08439999999999</v>
       </c>
       <c r="E380">
-        <v>5667.5</v>
+        <v>6727.9</v>
       </c>
       <c r="F380">
         <v>5.22</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>43132</v>
       </c>
@@ -7452,13 +7451,13 @@
         <v>156.91630000000001</v>
       </c>
       <c r="E381">
-        <v>5598</v>
+        <v>5667.5</v>
       </c>
       <c r="F381">
         <v>5.22</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>43160</v>
       </c>
@@ -7472,13 +7471,13 @@
         <v>157.398</v>
       </c>
       <c r="E382">
-        <v>5775.1</v>
+        <v>5598</v>
       </c>
       <c r="F382">
         <v>5.22</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>43191</v>
       </c>
@@ -7492,13 +7491,13 @@
         <v>157.34440000000001</v>
       </c>
       <c r="E383">
-        <v>5473.2</v>
+        <v>5775.1</v>
       </c>
       <c r="F383">
         <v>5.22</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>43221</v>
       </c>
@@ -7512,13 +7511,13 @@
         <v>156.89080000000001</v>
       </c>
       <c r="E384">
-        <v>6875.4</v>
+        <v>5473.2</v>
       </c>
       <c r="F384">
         <v>5.22</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>43252</v>
       </c>
@@ -7532,13 +7531,13 @@
         <v>156.3357</v>
       </c>
       <c r="E385">
-        <v>6385.9</v>
+        <v>6875.4</v>
       </c>
       <c r="F385">
         <v>5.22</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>43282</v>
       </c>
@@ -7552,13 +7551,13 @@
         <v>155.0017</v>
       </c>
       <c r="E386">
-        <v>6308.4</v>
+        <v>6385.9</v>
       </c>
       <c r="F386">
         <v>5.22</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>43313</v>
       </c>
@@ -7572,13 +7571,13 @@
         <v>154.13220000000001</v>
       </c>
       <c r="E387">
-        <v>6059.7999999999902</v>
+        <v>6308.4</v>
       </c>
       <c r="F387">
         <v>5.22</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>43344</v>
       </c>
@@ -7592,13 +7591,13 @@
         <v>152.91319999999999</v>
       </c>
       <c r="E388">
-        <v>5095.2</v>
+        <v>6059.7999999999902</v>
       </c>
       <c r="F388">
         <v>5.31</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>43374</v>
       </c>
@@ -7612,13 +7611,13 @@
         <v>151.9436</v>
       </c>
       <c r="E389">
-        <v>6007.2</v>
+        <v>5095.2</v>
       </c>
       <c r="F389">
         <v>5.34</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>43405</v>
       </c>
@@ -7632,13 +7631,13 @@
         <v>150.45400000000001</v>
       </c>
       <c r="E390">
-        <v>5964.1</v>
+        <v>6007.2</v>
       </c>
       <c r="F390">
         <v>5.34</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>43435</v>
       </c>
@@ -7652,13 +7651,13 @@
         <v>148.3433</v>
       </c>
       <c r="E391">
-        <v>5306.9</v>
+        <v>5964.1</v>
       </c>
       <c r="F391">
         <v>5.34</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>43466</v>
       </c>
@@ -7672,13 +7671,13 @@
         <v>146.6183</v>
       </c>
       <c r="E392">
-        <v>4463.8999999999996</v>
+        <v>5306.9</v>
       </c>
       <c r="F392">
         <v>5.37</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>43497</v>
       </c>
@@ -7692,13 +7691,13 @@
         <v>145.89660000000001</v>
       </c>
       <c r="E393">
-        <v>4402.5</v>
+        <v>4463.8999999999996</v>
       </c>
       <c r="F393">
         <v>5.37</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>43525</v>
       </c>
@@ -7712,13 +7711,13 @@
         <v>145.4753</v>
       </c>
       <c r="E394">
-        <v>4559.1000000000004</v>
+        <v>4402.5</v>
       </c>
       <c r="F394">
         <v>5.37</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>43556</v>
       </c>
@@ -7732,13 +7731,13 @@
         <v>144.9178</v>
       </c>
       <c r="E395">
-        <v>4568.8999999999996</v>
+        <v>4559.1000000000004</v>
       </c>
       <c r="F395">
         <v>5.37</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>43586</v>
       </c>
@@ -7752,13 +7751,13 @@
         <v>144.6515</v>
       </c>
       <c r="E396">
-        <v>5437.2</v>
+        <v>4568.8999999999996</v>
       </c>
       <c r="F396">
         <v>5.37</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>43617</v>
       </c>
@@ -7772,13 +7771,13 @@
         <v>145.53030000000001</v>
       </c>
       <c r="E397">
-        <v>5061.8999999999996</v>
+        <v>5437.2</v>
       </c>
       <c r="F397">
         <v>5.15</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>43647</v>
       </c>
@@ -7792,13 +7791,13 @@
         <v>146.57669999999999</v>
       </c>
       <c r="E398">
-        <v>5549.2</v>
+        <v>5061.8999999999996</v>
       </c>
       <c r="F398">
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>43678</v>
       </c>
@@ -7812,13 +7811,13 @@
         <v>149.08850000000001</v>
       </c>
       <c r="E399">
-        <v>5507.9</v>
+        <v>5549.2</v>
       </c>
       <c r="F399">
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>43709</v>
       </c>
@@ -7832,13 +7831,13 @@
         <v>152.0607</v>
       </c>
       <c r="E400">
-        <v>5145.2</v>
+        <v>5507.9</v>
       </c>
       <c r="F400">
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>43739</v>
       </c>
@@ -7852,13 +7851,13 @@
         <v>155.35159999999999</v>
       </c>
       <c r="E401">
-        <v>6068.8</v>
+        <v>5145.2</v>
       </c>
       <c r="F401">
         <v>4.8</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>43770</v>
       </c>
@@ -7872,13 +7871,13 @@
         <v>157.8169</v>
       </c>
       <c r="E402">
-        <v>6268.8</v>
+        <v>6068.8</v>
       </c>
       <c r="F402">
         <v>4.8</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>43800</v>
       </c>
@@ -7892,13 +7891,13 @@
         <v>159.2448</v>
       </c>
       <c r="E403">
-        <v>6716.1</v>
+        <v>6268.8</v>
       </c>
       <c r="F403">
         <v>4.8</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>43831</v>
       </c>
@@ -7912,13 +7911,13 @@
         <v>160.595</v>
       </c>
       <c r="E404">
-        <v>5774.1</v>
+        <v>6716.1</v>
       </c>
       <c r="F404">
         <v>4.8</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>43862</v>
       </c>
@@ -7932,13 +7931,13 @@
         <v>161.89019999999999</v>
       </c>
       <c r="E405">
-        <v>5127.8999999999996</v>
+        <v>5774.1</v>
       </c>
       <c r="F405">
         <v>4.8</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>43891</v>
       </c>
@@ -7952,13 +7951,13 @@
         <v>161.79570000000001</v>
       </c>
       <c r="E406">
-        <v>5519.4</v>
+        <v>5127.8999999999996</v>
       </c>
       <c r="F406">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>43922</v>
       </c>
@@ -7972,13 +7971,13 @@
         <v>160.5779</v>
       </c>
       <c r="E407">
-        <v>5555.3</v>
+        <v>5519.4</v>
       </c>
       <c r="F407">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>43952</v>
       </c>
@@ -7992,13 +7991,13 @@
         <v>158.9178</v>
       </c>
       <c r="E408">
-        <v>5402.2</v>
+        <v>5555.3</v>
       </c>
       <c r="F408">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>43983</v>
       </c>
@@ -8012,13 +8011,13 @@
         <v>157.86930000000001</v>
       </c>
       <c r="E409">
-        <v>5514.6</v>
+        <v>5402.2</v>
       </c>
       <c r="F409">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44013</v>
       </c>
@@ -8032,13 +8031,13 @@
         <v>157.11799999999999</v>
       </c>
       <c r="E410">
-        <v>5792.6</v>
+        <v>5514.6</v>
       </c>
       <c r="F410">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44044</v>
       </c>
@@ -8052,13 +8051,13 @@
         <v>156.34569999999999</v>
       </c>
       <c r="E411">
-        <v>5954.8</v>
+        <v>5792.6</v>
       </c>
       <c r="F411">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44075</v>
       </c>
@@ -8072,13 +8071,13 @@
         <v>156.2226</v>
       </c>
       <c r="E412">
-        <v>5654.8</v>
+        <v>5954.8</v>
       </c>
       <c r="F412">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44105</v>
       </c>
@@ -8092,13 +8091,13 @@
         <v>158.12049999999999</v>
       </c>
       <c r="E413">
-        <v>5310.9</v>
+        <v>5654.8</v>
       </c>
       <c r="F413">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44136</v>
       </c>
@@ -8112,13 +8111,13 @@
         <v>160.41079999999999</v>
       </c>
       <c r="E414">
-        <v>6306</v>
+        <v>5310.9</v>
       </c>
       <c r="F414">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44166</v>
       </c>
@@ -8132,13 +8131,13 @@
         <v>162.28790000000001</v>
       </c>
       <c r="E415">
-        <v>8039.5</v>
+        <v>6306</v>
       </c>
       <c r="F415">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44197</v>
       </c>
@@ -8152,13 +8151,13 @@
         <v>163.76519999999999</v>
       </c>
       <c r="E416">
-        <v>6997.3</v>
+        <v>8039.5</v>
       </c>
       <c r="F416">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44228</v>
       </c>
@@ -8172,13 +8171,13 @@
         <v>167.8116</v>
       </c>
       <c r="E417">
-        <v>7176.4</v>
+        <v>6997.3</v>
       </c>
       <c r="F417">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44256</v>
       </c>
@@ -8192,13 +8191,13 @@
         <v>172.2587</v>
       </c>
       <c r="E418">
-        <v>8669.6</v>
+        <v>7176.4</v>
       </c>
       <c r="F418">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44287</v>
       </c>
@@ -8212,13 +8211,13 @@
         <v>174.96680000000001</v>
       </c>
       <c r="E419">
-        <v>8516.7000000000007</v>
+        <v>8669.6</v>
       </c>
       <c r="F419">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44317</v>
       </c>
@@ -8232,13 +8231,13 @@
         <v>177.8931</v>
       </c>
       <c r="E420">
-        <v>9588.1</v>
+        <v>8516.7000000000007</v>
       </c>
       <c r="F420">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44348</v>
       </c>
@@ -8252,13 +8251,13 @@
         <v>180.1454</v>
       </c>
       <c r="E421">
-        <v>9938.2999999999902</v>
+        <v>9588.1</v>
       </c>
       <c r="F421">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44378</v>
       </c>
@@ -8272,13 +8271,13 @@
         <v>182.53149999999999</v>
       </c>
       <c r="E422">
-        <v>9499.2999999999902</v>
+        <v>9938.2999999999902</v>
       </c>
       <c r="F422">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44409</v>
       </c>
@@ -8292,13 +8291,13 @@
         <v>184.30279999999999</v>
       </c>
       <c r="E423">
-        <v>9138.6</v>
+        <v>9499.2999999999902</v>
       </c>
       <c r="F423">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44440</v>
       </c>
@@ -8312,13 +8311,13 @@
         <v>186.31280000000001</v>
       </c>
       <c r="E424">
-        <v>8125.2</v>
+        <v>9138.6</v>
       </c>
       <c r="F424">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44470</v>
       </c>
@@ -8332,13 +8331,13 @@
         <v>188.87270000000001</v>
       </c>
       <c r="E425">
-        <v>8156.5</v>
+        <v>8125.2</v>
       </c>
       <c r="F425">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44501</v>
       </c>
@@ -8352,13 +8351,13 @@
         <v>190.5335</v>
       </c>
       <c r="E426">
-        <v>9866.9</v>
+        <v>8156.5</v>
       </c>
       <c r="F426">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44531</v>
       </c>
@@ -8372,13 +8371,13 @@
         <v>190.85429999999999</v>
       </c>
       <c r="E427">
-        <v>10593.5</v>
+        <v>9866.9</v>
       </c>
       <c r="F427">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44562</v>
       </c>
@@ -8392,13 +8391,13 @@
         <v>191.786</v>
       </c>
       <c r="E428">
-        <v>8524</v>
+        <v>10593.5</v>
       </c>
       <c r="F428">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44593</v>
       </c>
@@ -8412,13 +8411,13 @@
         <v>191.96979999999999</v>
       </c>
       <c r="E429">
-        <v>8173.4</v>
+        <v>8524</v>
       </c>
       <c r="F429">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44621</v>
       </c>
@@ -8432,13 +8431,13 @@
         <v>192.4083</v>
       </c>
       <c r="E430">
-        <v>9607.7000000000007</v>
+        <v>8173.4</v>
       </c>
       <c r="F430">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44652</v>
       </c>
@@ -8452,13 +8451,13 @@
         <v>191.87729999999999</v>
       </c>
       <c r="E431">
-        <v>8034.9</v>
+        <v>9607.7000000000007</v>
       </c>
       <c r="F431">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44682</v>
       </c>
@@ -8472,13 +8471,13 @@
         <v>190.876</v>
       </c>
       <c r="E432">
-        <v>10117.799999999999</v>
+        <v>8034.9</v>
       </c>
       <c r="F432">
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44713</v>
       </c>
@@ -8492,13 +8491,13 @@
         <v>189.31440000000001</v>
       </c>
       <c r="E433">
-        <v>9652.2000000000007</v>
+        <v>10117.799999999999</v>
       </c>
       <c r="F433">
         <v>5.27</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44743</v>
       </c>
@@ -8512,13 +8511,13 @@
         <v>186.75489999999999</v>
       </c>
       <c r="E434">
-        <v>8202.5999999999894</v>
+        <v>9652.2000000000007</v>
       </c>
       <c r="F434">
         <v>5.77</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44774</v>
       </c>
@@ -8532,13 +8531,13 @@
         <v>184.39510000000001</v>
       </c>
       <c r="E435">
-        <v>8310.9</v>
+        <v>8202.5999999999894</v>
       </c>
       <c r="F435">
         <v>6.27</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44805</v>
       </c>
@@ -8552,13 +8551,13 @@
         <v>182.97229999999999</v>
       </c>
       <c r="E436">
-        <v>7142.6</v>
+        <v>8310.9</v>
       </c>
       <c r="F436">
         <v>6.77</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44835</v>
       </c>
@@ -8572,13 +8571,13 @@
         <v>181.77109999999999</v>
       </c>
       <c r="E437">
-        <v>7490.8</v>
+        <v>7142.6</v>
       </c>
       <c r="F437">
         <v>7.02</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44866</v>
       </c>
@@ -8592,13 +8591,13 @@
         <v>180.5796</v>
       </c>
       <c r="E438">
-        <v>7406.6</v>
+        <v>7490.8</v>
       </c>
       <c r="F438">
         <v>7.27</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44896</v>
       </c>
@@ -8612,13 +8611,13 @@
         <v>179.08369999999999</v>
       </c>
       <c r="E439">
-        <v>7140.5</v>
+        <v>7406.6</v>
       </c>
       <c r="F439">
         <v>7.52</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44927</v>
       </c>
@@ -8632,13 +8631,13 @@
         <v>178.22280000000001</v>
       </c>
       <c r="E440">
-        <v>5439.6</v>
+        <v>7140.5</v>
       </c>
       <c r="F440">
         <v>7.52</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44958</v>
       </c>
@@ -8652,13 +8651,13 @@
         <v>178.35730000000001</v>
       </c>
       <c r="E441">
-        <v>5448.9</v>
+        <v>5439.6</v>
       </c>
       <c r="F441">
         <v>7.77</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44986</v>
       </c>
@@ -8672,13 +8671,13 @@
         <v>179.39599999999999</v>
       </c>
       <c r="E442">
-        <v>6503.9</v>
+        <v>5448.9</v>
       </c>
       <c r="F442">
         <v>8.02</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45017</v>
       </c>
@@ -8692,13 +8691,13 @@
         <v>179.96360000000001</v>
       </c>
       <c r="E443">
-        <v>5614.8</v>
+        <v>6503.9</v>
       </c>
       <c r="F443">
         <v>8.02</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45047</v>
       </c>
@@ -8712,13 +8711,13 @@
         <v>181.5926</v>
       </c>
       <c r="E444">
-        <v>7552.9</v>
+        <v>5614.8</v>
       </c>
       <c r="F444">
         <v>8.27</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45078</v>
       </c>
@@ -8732,13 +8731,13 @@
         <v>182.41720000000001</v>
       </c>
       <c r="E445">
-        <v>7453.4</v>
+        <v>7552.9</v>
       </c>
       <c r="F445">
         <v>8.52</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45108</v>
       </c>
@@ -8752,13 +8751,13 @@
         <v>183.0977</v>
       </c>
       <c r="E446">
-        <v>6490.2</v>
+        <v>7453.4</v>
       </c>
       <c r="F446">
         <v>8.52</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45139</v>
       </c>
@@ -8772,13 +8771,13 @@
         <v>184.1738</v>
       </c>
       <c r="E447">
-        <v>6907.2999999999902</v>
+        <v>6490.2</v>
       </c>
       <c r="F447">
         <v>8.52</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45170</v>
       </c>
@@ -8792,13 +8791,13 @@
         <v>184.56270000000001</v>
       </c>
       <c r="E448">
-        <v>6618.1</v>
+        <v>6907.2999999999902</v>
       </c>
       <c r="F448">
         <v>8.52</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45200</v>
       </c>
@@ -8812,13 +8811,13 @@
         <v>185.38890000000001</v>
       </c>
       <c r="E449">
-        <v>7350.6</v>
+        <v>6618.1</v>
       </c>
       <c r="F449">
         <v>8.52</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45231</v>
       </c>
@@ -8832,13 +8831,13 @@
         <v>185.3142</v>
       </c>
       <c r="E450">
-        <v>7924.5</v>
+        <v>7350.6</v>
       </c>
       <c r="F450">
         <v>8.77</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45261</v>
       </c>
@@ -8852,13 +8851,13 @@
         <v>184.41929999999999</v>
       </c>
       <c r="E451">
-        <v>7453.9</v>
+        <v>7924.5</v>
       </c>
       <c r="F451">
         <v>8.77</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45292</v>
       </c>
@@ -8872,13 +8871,13 @@
         <v>183.8724</v>
       </c>
       <c r="E452">
-        <v>6054.7999999999902</v>
+        <v>7453.9</v>
       </c>
       <c r="F452">
         <v>8.77</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>45323</v>
       </c>
@@ -8892,13 +8891,13 @@
         <v>184.06989999999999</v>
       </c>
       <c r="E453">
-        <v>6183.1</v>
+        <v>6054.7999999999902</v>
       </c>
       <c r="F453">
         <v>8.77</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>45352</v>
       </c>
@@ -8911,161 +8910,164 @@
       <c r="D454">
         <v>184.0873</v>
       </c>
+      <c r="E454">
+        <v>6183.1</v>
+      </c>
       <c r="F454">
         <v>8.77</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
     </row>
   </sheetData>
@@ -9084,22 +9086,22 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="3" customWidth="1"/>
     <col min="2" max="7" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="3"/>
+    <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
@@ -9143,8 +9145,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>41456</v>
       </c>
       <c r="B2" s="3">
@@ -9190,8 +9192,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>41487</v>
       </c>
       <c r="B3" s="3">
@@ -9237,8 +9239,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>41518</v>
       </c>
       <c r="B4" s="3">
@@ -9284,8 +9286,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>41548</v>
       </c>
       <c r="B5" s="3">
@@ -9331,8 +9333,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="5">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>41579</v>
       </c>
       <c r="B6" s="3">
@@ -9378,8 +9380,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>41609</v>
       </c>
       <c r="B7" s="3">
@@ -9425,8 +9427,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>41640</v>
       </c>
       <c r="B8" s="3">
@@ -9472,8 +9474,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>41671</v>
       </c>
       <c r="B9" s="3">
@@ -9519,8 +9521,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="5">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>41699</v>
       </c>
       <c r="B10" s="3">
@@ -9566,8 +9568,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>41730</v>
       </c>
       <c r="B11" s="3">
@@ -9613,8 +9615,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>41760</v>
       </c>
       <c r="B12" s="3">
@@ -9660,8 +9662,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="5">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>41791</v>
       </c>
       <c r="B13" s="3">
@@ -9707,8 +9709,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="5">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>41821</v>
       </c>
       <c r="B14" s="3">
@@ -9754,8 +9756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>41852</v>
       </c>
       <c r="B15" s="3">
@@ -9801,8 +9803,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>41883</v>
       </c>
       <c r="B16" s="3">
@@ -9848,8 +9850,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>41913</v>
       </c>
       <c r="B17" s="3">
@@ -9895,8 +9897,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>41944</v>
       </c>
       <c r="B18" s="3">
@@ -9942,8 +9944,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>41974</v>
       </c>
       <c r="B19" s="3">
@@ -9989,8 +9991,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>42005</v>
       </c>
       <c r="B20" s="3">
@@ -10036,8 +10038,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>42036</v>
       </c>
       <c r="B21" s="3">
@@ -10083,8 +10085,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>42064</v>
       </c>
       <c r="B22" s="3">
@@ -10130,8 +10132,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>42095</v>
       </c>
       <c r="B23" s="3">
@@ -10177,8 +10179,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>42125</v>
       </c>
       <c r="B24" s="3">
@@ -10224,8 +10226,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>42156</v>
       </c>
       <c r="B25" s="3">
@@ -10271,8 +10273,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>42186</v>
       </c>
       <c r="B26" s="3">
@@ -10318,8 +10320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>42217</v>
       </c>
       <c r="B27" s="3">
@@ -10365,8 +10367,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>42248</v>
       </c>
       <c r="B28" s="3">
@@ -10412,8 +10414,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>42278</v>
       </c>
       <c r="B29" s="3">
@@ -10459,8 +10461,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>42309</v>
       </c>
       <c r="B30" s="3">
@@ -10506,8 +10508,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>42339</v>
       </c>
       <c r="B31" s="3">
@@ -10553,8 +10555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>42370</v>
       </c>
       <c r="B32" s="3">
@@ -10600,8 +10602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>42401</v>
       </c>
       <c r="B33" s="3">
@@ -10647,8 +10649,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>42430</v>
       </c>
       <c r="B34" s="3">
@@ -10694,8 +10696,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>42461</v>
       </c>
       <c r="B35" s="3">
@@ -10741,8 +10743,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>42491</v>
       </c>
       <c r="B36" s="3">
@@ -10788,8 +10790,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>42522</v>
       </c>
       <c r="B37" s="3">
@@ -10835,8 +10837,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>42552</v>
       </c>
       <c r="B38" s="3">
@@ -10882,8 +10884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>42583</v>
       </c>
       <c r="B39" s="3">
@@ -10929,8 +10931,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>42614</v>
       </c>
       <c r="B40" s="3">
@@ -10976,8 +10978,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>42644</v>
       </c>
       <c r="B41" s="3">
@@ -11023,8 +11025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>42675</v>
       </c>
       <c r="B42" s="3">
@@ -11070,8 +11072,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>42705</v>
       </c>
       <c r="B43" s="3">
@@ -11117,8 +11119,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>42736</v>
       </c>
       <c r="B44" s="3">
@@ -11164,8 +11166,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>42767</v>
       </c>
       <c r="B45" s="3">
@@ -11211,8 +11213,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>42795</v>
       </c>
       <c r="B46" s="3">
@@ -11258,8 +11260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>42826</v>
       </c>
       <c r="B47" s="3">
@@ -11305,8 +11307,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>42856</v>
       </c>
       <c r="B48" s="3">
@@ -11352,8 +11354,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="5">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>42887</v>
       </c>
       <c r="B49" s="3">
@@ -11399,8 +11401,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="5">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>42917</v>
       </c>
       <c r="B50" s="3">
@@ -11446,8 +11448,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="5">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>42948</v>
       </c>
       <c r="B51" s="3">
@@ -11493,8 +11495,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="5">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>42979</v>
       </c>
       <c r="B52" s="3">
@@ -11540,8 +11542,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="5">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>43009</v>
       </c>
       <c r="B53" s="3">
@@ -11587,8 +11589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>43040</v>
       </c>
       <c r="B54" s="3">
@@ -11634,8 +11636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="5">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>43070</v>
       </c>
       <c r="B55" s="3">
@@ -11681,8 +11683,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="5">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>43101</v>
       </c>
       <c r="B56" s="3">
@@ -11728,8 +11730,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="5">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>43132</v>
       </c>
       <c r="B57" s="3">
@@ -11775,8 +11777,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="5">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>43160</v>
       </c>
       <c r="B58" s="3">
@@ -11822,8 +11824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>43191</v>
       </c>
       <c r="B59" s="3">
@@ -11869,8 +11871,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="5">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>43221</v>
       </c>
       <c r="B60" s="3">
@@ -11916,8 +11918,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="5">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>43252</v>
       </c>
       <c r="B61" s="3">
@@ -11963,8 +11965,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="5">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>43282</v>
       </c>
       <c r="B62" s="3">
@@ -12010,8 +12012,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="5">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>43313</v>
       </c>
       <c r="B63" s="3">
@@ -12057,8 +12059,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="5">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>43344</v>
       </c>
       <c r="B64" s="3">
@@ -12104,8 +12106,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="5">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>43374</v>
       </c>
       <c r="B65" s="3">
@@ -12151,8 +12153,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="5">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>43405</v>
       </c>
       <c r="B66" s="3">
@@ -12198,8 +12200,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="5">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>43435</v>
       </c>
       <c r="B67" s="3">
@@ -12245,8 +12247,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="5">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>43466</v>
       </c>
       <c r="B68" s="3">
@@ -12292,8 +12294,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="5">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>43497</v>
       </c>
       <c r="B69" s="3">
@@ -12339,8 +12341,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="5">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>43525</v>
       </c>
       <c r="B70" s="3">
@@ -12386,8 +12388,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="5">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>43556</v>
       </c>
       <c r="B71" s="3">
@@ -12433,8 +12435,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="5">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>43586</v>
       </c>
       <c r="B72" s="3">
@@ -12480,8 +12482,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="5">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>43617</v>
       </c>
       <c r="B73" s="3">
@@ -12527,8 +12529,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="5">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>43647</v>
       </c>
       <c r="B74" s="3">
@@ -12574,8 +12576,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="5">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>43678</v>
       </c>
       <c r="B75" s="3">
@@ -12621,8 +12623,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="5">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>43709</v>
       </c>
       <c r="B76" s="3">
@@ -12668,8 +12670,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="5">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>43739</v>
       </c>
       <c r="B77" s="3">
@@ -12715,8 +12717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="5">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>43770</v>
       </c>
       <c r="B78" s="3">
@@ -12762,8 +12764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="5">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>43800</v>
       </c>
       <c r="B79" s="3">
@@ -12809,8 +12811,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="5">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>43831</v>
       </c>
       <c r="B80" s="3">
@@ -12856,8 +12858,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="5">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>43862</v>
       </c>
       <c r="B81" s="3">
@@ -12903,8 +12905,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="5">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>43891</v>
       </c>
       <c r="B82" s="3">
@@ -12950,8 +12952,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="5">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>43922</v>
       </c>
       <c r="B83" s="3">
@@ -12997,8 +12999,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="5">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>43952</v>
       </c>
       <c r="B84" s="3">
@@ -13044,8 +13046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="5">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>43983</v>
       </c>
       <c r="B85" s="3">
@@ -13091,8 +13093,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="5">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>44013</v>
       </c>
       <c r="B86" s="3">
@@ -13138,8 +13140,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="5">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>44044</v>
       </c>
       <c r="B87" s="3">
@@ -13185,8 +13187,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="5">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>44075</v>
       </c>
       <c r="B88" s="3">
@@ -13232,8 +13234,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="5">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>44105</v>
       </c>
       <c r="B89" s="3">
@@ -13279,8 +13281,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="5">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>44136</v>
       </c>
       <c r="B90" s="3">
@@ -13326,8 +13328,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="5">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>44166</v>
       </c>
       <c r="B91" s="3">
@@ -13373,8 +13375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="5">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>44197</v>
       </c>
       <c r="B92" s="3">
@@ -13420,8 +13422,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="5">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>44228</v>
       </c>
       <c r="B93" s="3">
@@ -13467,8 +13469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="5">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>44256</v>
       </c>
       <c r="B94" s="3">
@@ -13514,8 +13516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="5">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>44287</v>
       </c>
       <c r="B95" s="3">
@@ -13561,8 +13563,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="5">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>44317</v>
       </c>
       <c r="B96" s="3">
@@ -13608,8 +13610,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="5">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>44348</v>
       </c>
       <c r="B97" s="3">
@@ -13655,8 +13657,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="5">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>44378</v>
       </c>
       <c r="B98" s="3">
@@ -13702,8 +13704,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="5">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>44409</v>
       </c>
       <c r="B99" s="3">
@@ -13749,8 +13751,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="5">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>44440</v>
       </c>
       <c r="B100" s="3">
@@ -13796,8 +13798,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="5">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>44470</v>
       </c>
       <c r="B101" s="3">
@@ -13843,8 +13845,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="5">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>44501</v>
       </c>
       <c r="B102" s="3">
@@ -13890,8 +13892,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="5">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>44531</v>
       </c>
       <c r="B103" s="3">
@@ -13937,8 +13939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="5">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>44562</v>
       </c>
       <c r="B104" s="3">
@@ -13984,8 +13986,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="5">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>44593</v>
       </c>
       <c r="B105" s="3">
@@ -14031,8 +14033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="5">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>44621</v>
       </c>
       <c r="B106" s="3">
@@ -14078,8 +14080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="5">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>44652</v>
       </c>
       <c r="B107" s="3">
@@ -14125,8 +14127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="5">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>44682</v>
       </c>
       <c r="B108" s="3">
@@ -14172,8 +14174,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="5">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
         <v>44713</v>
       </c>
       <c r="B109" s="3">
@@ -14219,8 +14221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="5">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
         <v>44743</v>
       </c>
       <c r="B110" s="3">
@@ -14266,8 +14268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="5">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
         <v>44774</v>
       </c>
       <c r="B111" s="3">
@@ -14313,8 +14315,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="5">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
         <v>44805</v>
       </c>
       <c r="B112" s="3">
@@ -14360,8 +14362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="5">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
         <v>44835</v>
       </c>
       <c r="B113" s="3">
@@ -14407,8 +14409,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="5">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
         <v>44866</v>
       </c>
       <c r="B114" s="3">
@@ -14454,8 +14456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="5">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
         <v>44896</v>
       </c>
       <c r="B115" s="3">
@@ -14501,8 +14503,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="5">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
         <v>44927</v>
       </c>
       <c r="B116" s="3">
@@ -14548,8 +14550,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="5">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
         <v>44958</v>
       </c>
       <c r="B117" s="3">
@@ -14595,8 +14597,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="5">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
         <v>44986</v>
       </c>
       <c r="B118" s="3">
@@ -14642,8 +14644,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="5">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
         <v>45017</v>
       </c>
       <c r="B119" s="3">
@@ -14689,8 +14691,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="5">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
         <v>45047</v>
       </c>
       <c r="B120" s="3">
@@ -14736,8 +14738,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="5">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
         <v>45078</v>
       </c>
       <c r="B121" s="3">
@@ -14783,8 +14785,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="5">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
         <v>45108</v>
       </c>
       <c r="B122" s="3">
@@ -14830,8 +14832,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="5">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
         <v>45139</v>
       </c>
       <c r="B123" s="3">
@@ -14877,8 +14879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="5">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
         <v>45170</v>
       </c>
       <c r="B124" s="3">
@@ -14924,8 +14926,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="5">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
         <v>45200</v>
       </c>
       <c r="B125" s="3">
@@ -14971,8 +14973,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="5">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
         <v>45231</v>
       </c>
       <c r="B126" s="3">
@@ -15018,8 +15020,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="5">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
         <v>45261</v>
       </c>
       <c r="B127" s="3">
@@ -15065,8 +15067,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="5">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
         <v>45292</v>
       </c>
       <c r="B128" s="3">
@@ -15112,8 +15114,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="5">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
         <v>45323</v>
       </c>
       <c r="B129" s="3">
@@ -15159,8 +15161,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="5">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
         <v>45352</v>
       </c>
       <c r="B130" s="3">

--- a/data/LTD_new.xlsx
+++ b/data/LTD_new.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinaight/Desktop/29mob/ltd_forecasting/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030E9B5-81D5-AF41-893D-0C72782BDA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAB66D-B636-A74C-B9BD-5A11A47BEAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregate data" sheetId="1" r:id="rId1"/>
     <sheet name="LTD and volumes by sector" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -146,6 +160,685 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Data aggregate"/>
+      <sheetName val="Sectoral data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2">
+            <v>41456</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>41487</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>41518</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>41548</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>41579</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>41609</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>41640</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>41671</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>41699</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>41730</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>41760</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>41791</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>41821</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>41852</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>41883</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>41913</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>41944</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>41974</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>42005</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>42036</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>42064</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>42095</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>42125</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>42156</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>42186</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>42217</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>42248</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>42278</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>42309</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>42339</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>42370</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>42401</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>42430</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>42461</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>42491</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>42522</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>42552</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>42583</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>42614</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>42644</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>42675</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42705</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>42736</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>42767</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>42795</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>42826</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>42856</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>42887</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>42917</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>42948</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>42979</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43009</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43040</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43070</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43101</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43132</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>43160</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>43191</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>43221</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>43252</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>43282</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>43313</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>43344</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>43374</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>43405</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>43435</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>43466</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>43497</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>43525</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>43556</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>43586</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>43617</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>43647</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>43678</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>43709</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>43739</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>43770</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>43800</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>43831</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>43862</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>43891</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>43922</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>43952</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>43983</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44013</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44044</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44075</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44105</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44136</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44166</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44197</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44228</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44256</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44287</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44317</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44348</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44378</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44409</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44440</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44470</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44501</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44531</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44562</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44593</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44621</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44652</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44682</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44713</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>44743</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>44774</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>44805</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>44835</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>44866</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>44896</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>44927</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>44958</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>44986</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>45017</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>45047</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>45078</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>45108</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>45139</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>45170</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>45200</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>45231</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>45261</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>45292</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>45323</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>45352</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>45383</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>45413</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>45444</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D455" sqref="D455:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8918,13 +9611,64 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B455">
+        <v>700887094.44000006</v>
+      </c>
+      <c r="C455">
+        <v>9590</v>
+      </c>
+      <c r="D455">
+        <v>184.79990000000001</v>
+      </c>
+      <c r="E455">
+        <v>6495.5</v>
+      </c>
+      <c r="F455">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B456">
+        <v>791076300.79999995</v>
+      </c>
+      <c r="C456">
+        <v>10757</v>
+      </c>
+      <c r="D456">
+        <v>184.59639999999999</v>
+      </c>
+      <c r="E456">
+        <v>7270.4</v>
+      </c>
+      <c r="F456">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B457">
+        <v>762042820.17999995</v>
+      </c>
+      <c r="C457">
+        <v>7877</v>
+      </c>
+      <c r="D457">
+        <v>184.25280000000001</v>
+      </c>
+      <c r="E457">
+        <v>8522.2999999999902</v>
+      </c>
+      <c r="F457">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
@@ -9080,10 +9824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A27EF-AE98-4D0C-A878-1803CF15025B}">
-  <dimension ref="A1:O130"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14790,19 +15534,19 @@
         <v>45108</v>
       </c>
       <c r="B122" s="3">
-        <v>634212641</v>
+        <v>633867201</v>
       </c>
       <c r="C122" s="3">
-        <v>519559271</v>
+        <v>519282448</v>
       </c>
       <c r="D122" s="3">
-        <v>114653370</v>
+        <v>114584753</v>
       </c>
       <c r="E122" s="3">
         <v>46865986</v>
       </c>
       <c r="F122" s="3">
-        <v>39995010</v>
+        <v>39926393</v>
       </c>
       <c r="G122" s="3">
         <v>27792374</v>
@@ -14811,19 +15555,19 @@
         <v>0</v>
       </c>
       <c r="I122" s="3">
-        <v>16502</v>
+        <v>16493</v>
       </c>
       <c r="J122" s="3">
-        <v>15189</v>
+        <v>15182</v>
       </c>
       <c r="K122" s="3">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="L122" s="3">
         <v>467</v>
       </c>
       <c r="M122" s="3">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N122" s="3">
         <v>416</v>
@@ -14837,10 +15581,10 @@
         <v>45139</v>
       </c>
       <c r="B123" s="3">
-        <v>701096959</v>
+        <v>700837114</v>
       </c>
       <c r="C123" s="3">
-        <v>547066611</v>
+        <v>546806766</v>
       </c>
       <c r="D123" s="3">
         <v>154030348</v>
@@ -14858,10 +15602,10 @@
         <v>0</v>
       </c>
       <c r="I123" s="3">
-        <v>16527</v>
+        <v>16524</v>
       </c>
       <c r="J123" s="3">
-        <v>15460</v>
+        <v>15457</v>
       </c>
       <c r="K123" s="3">
         <v>1067</v>
@@ -14884,19 +15628,19 @@
         <v>45170</v>
       </c>
       <c r="B124" s="3">
-        <v>627913702</v>
+        <v>627491295</v>
       </c>
       <c r="C124" s="3">
-        <v>531472828</v>
+        <v>531357771</v>
       </c>
       <c r="D124" s="3">
-        <v>96440874</v>
+        <v>96133524</v>
       </c>
       <c r="E124" s="3">
         <v>47530096</v>
       </c>
       <c r="F124" s="3">
-        <v>29346054</v>
+        <v>29038704</v>
       </c>
       <c r="G124" s="3">
         <v>19564724</v>
@@ -14905,19 +15649,19 @@
         <v>0</v>
       </c>
       <c r="I124" s="3">
-        <v>16710</v>
+        <v>16702</v>
       </c>
       <c r="J124" s="3">
-        <v>15653</v>
+        <v>15647</v>
       </c>
       <c r="K124" s="3">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L124" s="3">
         <v>368</v>
       </c>
       <c r="M124" s="3">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N124" s="3">
         <v>353</v>
@@ -14931,34 +15675,34 @@
         <v>45200</v>
       </c>
       <c r="B125" s="3">
-        <v>692957678</v>
+        <v>692521941</v>
       </c>
       <c r="C125" s="3">
-        <v>560319928</v>
+        <v>560003626</v>
       </c>
       <c r="D125" s="3">
-        <v>132637750</v>
+        <v>132518315</v>
       </c>
       <c r="E125" s="3">
-        <v>71705077</v>
+        <v>71696017</v>
       </c>
       <c r="F125" s="3">
-        <v>36606747</v>
+        <v>36596747</v>
       </c>
       <c r="G125" s="3">
-        <v>24325926</v>
+        <v>24225551</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
       </c>
       <c r="I125" s="3">
-        <v>17517</v>
+        <v>17514</v>
       </c>
       <c r="J125" s="3">
-        <v>16399</v>
+        <v>16397</v>
       </c>
       <c r="K125" s="3">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L125" s="3">
         <v>471</v>
@@ -14967,7 +15711,7 @@
         <v>308</v>
       </c>
       <c r="N125" s="3">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O125" s="3">
         <v>0</v>
@@ -14978,19 +15722,19 @@
         <v>45231</v>
       </c>
       <c r="B126" s="3">
-        <v>701118103</v>
+        <v>700705000</v>
       </c>
       <c r="C126" s="3">
-        <v>597768301</v>
+        <v>597373733</v>
       </c>
       <c r="D126" s="3">
-        <v>103349802</v>
+        <v>103331267</v>
       </c>
       <c r="E126" s="3">
         <v>52115228</v>
       </c>
       <c r="F126" s="3">
-        <v>34553066</v>
+        <v>34534531</v>
       </c>
       <c r="G126" s="3">
         <v>16681508</v>
@@ -14999,10 +15743,10 @@
         <v>0</v>
       </c>
       <c r="I126" s="3">
-        <v>18103</v>
+        <v>18096</v>
       </c>
       <c r="J126" s="3">
-        <v>16890</v>
+        <v>16883</v>
       </c>
       <c r="K126" s="3">
         <v>1213</v>
@@ -15025,40 +15769,40 @@
         <v>45261</v>
       </c>
       <c r="B127" s="3">
-        <v>888372656</v>
+        <v>887968728</v>
       </c>
       <c r="C127" s="3">
-        <v>721439291</v>
+        <v>721341413</v>
       </c>
       <c r="D127" s="3">
-        <v>166933365</v>
+        <v>166627315</v>
       </c>
       <c r="E127" s="3">
-        <v>81683459</v>
+        <v>81378894</v>
       </c>
       <c r="F127" s="3">
-        <v>54495105</v>
+        <v>54534411</v>
       </c>
       <c r="G127" s="3">
-        <v>30754801</v>
+        <v>30714010</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
       </c>
       <c r="I127" s="3">
-        <v>21452</v>
+        <v>21447</v>
       </c>
       <c r="J127" s="3">
-        <v>19873</v>
+        <v>19869</v>
       </c>
       <c r="K127" s="3">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="L127" s="3">
         <v>653</v>
       </c>
       <c r="M127" s="3">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N127" s="3">
         <v>438</v>
@@ -15072,40 +15816,40 @@
         <v>45292</v>
       </c>
       <c r="B128" s="3">
-        <v>646502948</v>
+        <v>645750429</v>
       </c>
       <c r="C128" s="3">
-        <v>558163792</v>
+        <v>557524583</v>
       </c>
       <c r="D128" s="3">
-        <v>88339156</v>
+        <v>88225846</v>
       </c>
       <c r="E128" s="3">
-        <v>37342908</v>
+        <v>37343666</v>
       </c>
       <c r="F128" s="3">
-        <v>22146537</v>
+        <v>22021624</v>
       </c>
       <c r="G128" s="3">
-        <v>28849711</v>
+        <v>28860556</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
       </c>
       <c r="I128" s="3">
-        <v>15181</v>
+        <v>15172</v>
       </c>
       <c r="J128" s="3">
-        <v>14329</v>
+        <v>14321</v>
       </c>
       <c r="K128" s="3">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L128" s="3">
         <v>284</v>
       </c>
       <c r="M128" s="3">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N128" s="3">
         <v>316</v>
@@ -15119,43 +15863,43 @@
         <v>45323</v>
       </c>
       <c r="B129" s="3">
-        <v>658152214</v>
+        <v>655434556</v>
       </c>
       <c r="C129" s="3">
-        <v>501590450</v>
+        <v>499925985</v>
       </c>
       <c r="D129" s="3">
-        <v>156561764</v>
+        <v>155508571</v>
       </c>
       <c r="E129" s="3">
-        <v>64950082</v>
+        <v>64159783</v>
       </c>
       <c r="F129" s="3">
-        <v>41940078</v>
+        <v>41718027</v>
       </c>
       <c r="G129" s="3">
-        <v>49671604</v>
+        <v>49630761</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
       </c>
       <c r="I129" s="3">
-        <v>14607</v>
+        <v>14591</v>
       </c>
       <c r="J129" s="3">
-        <v>13539</v>
+        <v>13528</v>
       </c>
       <c r="K129" s="3">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="L129" s="3">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M129" s="3">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N129" s="3">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O129" s="3">
         <v>0</v>
@@ -15166,19 +15910,19 @@
         <v>45352</v>
       </c>
       <c r="B130" s="3">
-        <v>613877846</v>
+        <v>611674565</v>
       </c>
       <c r="C130" s="3">
-        <v>484197139</v>
+        <v>483505506</v>
       </c>
       <c r="D130" s="3">
-        <v>129680707</v>
+        <v>128169059</v>
       </c>
       <c r="E130" s="3">
-        <v>55440560</v>
+        <v>55258915</v>
       </c>
       <c r="F130" s="3">
-        <v>48176814</v>
+        <v>46846811</v>
       </c>
       <c r="G130" s="3">
         <v>26063333</v>
@@ -15187,16 +15931,16 @@
         <v>0</v>
       </c>
       <c r="I130" s="3">
-        <v>15379</v>
+        <v>15366</v>
       </c>
       <c r="J130" s="3">
-        <v>14215</v>
+        <v>14203</v>
       </c>
       <c r="K130" s="3">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="L130" s="3">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M130" s="3">
         <v>356</v>
@@ -15205,6 +15949,147 @@
         <v>372</v>
       </c>
       <c r="O130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B131" s="3">
+        <v>653481487</v>
+      </c>
+      <c r="C131" s="3">
+        <v>548257657</v>
+      </c>
+      <c r="D131" s="3">
+        <v>105223830</v>
+      </c>
+      <c r="E131" s="3">
+        <v>51557803</v>
+      </c>
+      <c r="F131" s="3">
+        <v>32672686</v>
+      </c>
+      <c r="G131" s="3">
+        <v>20993341</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3">
+        <v>17052</v>
+      </c>
+      <c r="J131" s="3">
+        <v>15867</v>
+      </c>
+      <c r="K131" s="3">
+        <v>1185</v>
+      </c>
+      <c r="L131" s="3">
+        <v>429</v>
+      </c>
+      <c r="M131" s="3">
+        <v>347</v>
+      </c>
+      <c r="N131" s="3">
+        <v>409</v>
+      </c>
+      <c r="O131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>45413</v>
+      </c>
+      <c r="B132" s="3">
+        <v>765007278</v>
+      </c>
+      <c r="C132" s="3">
+        <v>620490152</v>
+      </c>
+      <c r="D132" s="3">
+        <v>144517126</v>
+      </c>
+      <c r="E132" s="3">
+        <v>62710383</v>
+      </c>
+      <c r="F132" s="3">
+        <v>43496781</v>
+      </c>
+      <c r="G132" s="3">
+        <v>38309962</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3">
+        <v>19322</v>
+      </c>
+      <c r="J132" s="3">
+        <v>18026</v>
+      </c>
+      <c r="K132" s="3">
+        <v>1296</v>
+      </c>
+      <c r="L132" s="3">
+        <v>522</v>
+      </c>
+      <c r="M132" s="3">
+        <v>318</v>
+      </c>
+      <c r="N132" s="3">
+        <v>456</v>
+      </c>
+      <c r="O132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>45444</v>
+      </c>
+      <c r="B133" s="3">
+        <v>759550343</v>
+      </c>
+      <c r="C133" s="3">
+        <v>600298068</v>
+      </c>
+      <c r="D133" s="3">
+        <v>159252275</v>
+      </c>
+      <c r="E133" s="3">
+        <v>74632249</v>
+      </c>
+      <c r="F133" s="3">
+        <v>64654679</v>
+      </c>
+      <c r="G133" s="3">
+        <v>19965347</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3">
+        <v>19936</v>
+      </c>
+      <c r="J133" s="3">
+        <v>18367</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1569</v>
+      </c>
+      <c r="L133" s="3">
+        <v>607</v>
+      </c>
+      <c r="M133" s="3">
+        <v>472</v>
+      </c>
+      <c r="N133" s="3">
+        <v>490</v>
+      </c>
+      <c r="O133" s="3">
         <v>0</v>
       </c>
     </row>
